--- a/MS_SC200.xlsx
+++ b/MS_SC200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c26969d82fe7094/Dokumenty/Personal/personalNotes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c26969d82fe7094/Dokumenty/Personal/Work/personalNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{9CE7239F-3B1F-4BAC-94A1-D66E878123D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9CB254B-1B9E-4CB3-8CB8-8FD35355BA92}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{3A6843E5-8FF1-4B94-80DB-C29ACFE3780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0875BD0-FC4C-4FB6-86CD-40E42284AB46}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7F74C87C-BB9A-4ECC-8DAD-93443E4E33C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{7F74C87C-BB9A-4ECC-8DAD-93443E4E33C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
   <si>
     <t>Asset Discovery</t>
   </si>
@@ -256,12 +256,414 @@
   <si>
     <t>"suggestions"</t>
   </si>
+  <si>
+    <t>"hardening"</t>
+  </si>
+  <si>
+    <t>"discovery"</t>
+  </si>
+  <si>
+    <t>Attack Surface Reduction zpevňuje místa, kde je pravděpodobné, že hrozba zaútočí, uzavírá mezery a snižuje rizika.</t>
+  </si>
+  <si>
+    <t>ASR se skládá z těchto funkcí:</t>
+  </si>
+  <si>
+    <t>Řízený přístup ke složkám zabraňuje nedůvěryhodným aplikacím (nebo malwaru) v přístupu k chráněným složkám.</t>
+  </si>
+  <si>
+    <t>Hardware-based isolation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardwarová izolace chrání systémy před pokročilými útoky a zároveň pomáhá udržovat produktivitu uživatelů. </t>
+  </si>
+  <si>
+    <t>Izoluje nedůvěryhodné webové stránky a dokumenty PDF do odlehčeného kontejneru (sandbox) odděleně od zbytku systému – vy definujete, co je důvěryhodné, jinak vše ostatní není.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">K jejich zapnutí a konfiguraci použijte </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft Endpoint Manager (Intune)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nebo jiné nástroje pro správu – tyto funkce můžeme dokonce nejprve auditovat, aniž bychom je museli vynucovat, abychom pochopili, jak mohou ovlivnit vaše prostředí.</t>
+    </r>
+  </si>
+  <si>
+    <t>Řízení aplikací může zabránit spuštění nedůvěryhodných aplikací.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementovaný model – nevěř ničemu, dokud si nezíská vaši důvěru. </t>
+  </si>
+  <si>
+    <t>Identifikujeme, kterým aplikacím důvěřujeme (circle of trust), a kontrola aplikací umožňuje spouštění pouze těchto aplikací.</t>
+  </si>
+  <si>
+    <t>Application control</t>
+  </si>
+  <si>
+    <t>Definujeme, které aplikace mají přístup k složkám.</t>
+  </si>
+  <si>
+    <t>Síťová ochrana nabízí podobný typ ochrany pro síťová připojení – blokuje přístup k internetovým destinacím s nízkou reputací využitím informací společnosti Microsoft o prostředí hrozeb.</t>
+  </si>
+  <si>
+    <t>Rozšiřuje SmartScreen tak, aby blokoval veškerý odchozí provoz do nebezpečných internetových zdrojů jakoukoli aplikací, nejen Microsoft Edge.</t>
+  </si>
+  <si>
+    <t>Ochrana proti zneužití automaticky aplikuje techniky zmírnění zneužití na procesy a aplikace operačního systému.</t>
+  </si>
+  <si>
+    <t>Exploit protection</t>
+  </si>
+  <si>
+    <t>Control flow guard (CFG)</t>
+  </si>
+  <si>
+    <t>Data execution prevention (DEP)</t>
+  </si>
+  <si>
+    <t>Force randomization for images (Mandatory ASLR)</t>
+  </si>
+  <si>
+    <t>Validate exception chains (SEHOP)</t>
+  </si>
+  <si>
+    <t>Validate heap integrity</t>
+  </si>
+  <si>
+    <t>Arbitrary code guard (ACG)</t>
+  </si>
+  <si>
+    <t>Randomize memory allocations (Bottom-Up ASLR)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vlastní seznamy povolených a blokovaných adres IP a adres, vynucení zásad koncových bodů pro integraci s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Microsoft Cloud App Security a webovou ochranou </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>– to vše funguje bez webového proxy, ať už jsou stroje v podnikové síti nebo ne.</t>
+    </r>
+  </si>
+  <si>
+    <t>Device control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovládání zařízení, možnost ovládat vyměnitelná média. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Povolte nebo zablokujte určitá vyměnitelná zařízení, abyste zabránili hrozbám, která mohou obsahovat. </t>
+  </si>
+  <si>
+    <t>Např. Povolit nebo zakázat přístup k zápisu na všechny vyměnitelné disky nebo pomocí ID dodavatele USB, povolit ochranu přímého přístupu do paměti pro zmírnění útoků DMA, včetně ochrany DMA jádra</t>
+  </si>
+  <si>
+    <t>Cloud-delivered protection</t>
+  </si>
+  <si>
+    <t>Web protection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vlastní </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Indicators of Compromise (IoCs)</t>
+    </r>
+  </si>
+  <si>
+    <t>Web Threat Protection (WTP)</t>
+  </si>
+  <si>
+    <t>Web Content Filtering (WCF)</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Cloud Apps (MDCA) allow</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>Na základě tohoto pořadí priorit jsou vyhodnoceny URL nebo IP adresy</t>
+  </si>
+  <si>
+    <t>Následující součásti, uvedené v pořadí priority, společně tvoří kategorii ochrany webu</t>
+  </si>
+  <si>
+    <t>Obranný mechanismus proti webovým hrozbám a filtr obsahu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jsou vynucovány </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>klientem SmartScreen</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v prohlížeči Microsoft Edge a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Network Protection klientem</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ve všech ostatních prohlížečích nebo procesech:</t>
+    </r>
+  </si>
+  <si>
+    <t>Klient Network Protection nevyhodnocuje provoz Edge (SmartScreen is built-in directly) a naopak</t>
+  </si>
+  <si>
+    <t>Monitoruje a řídí vyměnitelná média za účelem ochrany před ztrátou dat</t>
+  </si>
+  <si>
+    <t>Hlavní součásti Device Control:</t>
+  </si>
+  <si>
+    <t>Common use-case scenario</t>
+  </si>
+  <si>
+    <t>Removable storage control</t>
+  </si>
+  <si>
+    <t>Device installation</t>
+  </si>
+  <si>
+    <t>Printer protection</t>
+  </si>
+  <si>
+    <t>Bluetooth management</t>
+  </si>
+  <si>
+    <t>BitLocker</t>
+  </si>
+  <si>
+    <t>Šifrovat vyměnitelné úložiště</t>
+  </si>
+  <si>
+    <t>Auditujte/blokujte jakoukoli kombinaci čtení a zápisu a</t>
+  </si>
+  <si>
+    <t>spouštění přístupu k libovolnému vyměnitelnému úložišti</t>
+  </si>
+  <si>
+    <t>(USB/CDROM/SD/SCSI/iPhone/a tak dále), ale povolte</t>
+  </si>
+  <si>
+    <t>konkrétní na základě ID zařízení, typu sběrnice, sériového</t>
+  </si>
+  <si>
+    <t>čísla, ID instance, PID /VID a tak dále</t>
+  </si>
+  <si>
+    <t>Povolit pouze určitému uživateli nebo skupině uživatelů</t>
+  </si>
+  <si>
+    <t>přístup ke konkrétnímu vyměnitelnému úložišti na</t>
+  </si>
+  <si>
+    <t>konkrétním počítači nebo na sdíleném počítači</t>
+  </si>
+  <si>
+    <t>Blokujte všechna vyměnitelná úložiště, ale povolte schválená šifrovaná</t>
+  </si>
+  <si>
+    <t>Zabraňte lidem v instalaci určitých nevyměnitelných úložných</t>
+  </si>
+  <si>
+    <t>médií – například monitoru, klávesnice – ale povolte</t>
+  </si>
+  <si>
+    <t>konkrétní média na základě ID zařízení, ID hardwaru a ID instance</t>
+  </si>
+  <si>
+    <t>Zablokujte lidem tisk na jakékoli tiskárně, ale povolte firemní</t>
+  </si>
+  <si>
+    <t>tiskárny a autorizované tiskárny USB</t>
+  </si>
+  <si>
+    <t>Zablokujte lidem přenos souborů přes Bluetooth pomocí služby GUID</t>
+  </si>
+  <si>
+    <t>Blokovat připojení Bluetooth/objevitelnost/předběžné spárování/reklama/proximální připojení</t>
+  </si>
+  <si>
+    <t>Network protection (NP)</t>
+  </si>
+  <si>
+    <t>Controlled folder access (CFA)</t>
+  </si>
+  <si>
+    <t>Device inventory</t>
+  </si>
+  <si>
+    <t>Device inventory zobrazuje seznam zařízení ve vaší síti, na kterých byly generovány výstrahy</t>
+  </si>
+  <si>
+    <t>Ve výchozím nastavení se ve frontě zobrazují zařízení s výstrahami za posledních 30 dní</t>
+  </si>
+  <si>
+    <t>Risk level</t>
+  </si>
+  <si>
+    <t>Úroveň rizika odráží celkové hodnocení rizika zařízení na základě kombinace faktorů, včetně</t>
+  </si>
+  <si>
+    <t>typů a závažnosti aktivních výstrah na zařízení. Vyřešení aktivních výstrah, schválení</t>
+  </si>
+  <si>
+    <t>nápravných činností a potlačení následných výstrah může snížit úroveň rizika</t>
+  </si>
+  <si>
+    <t>Exposure level</t>
+  </si>
+  <si>
+    <t>Následující stavy stavu zařízení:</t>
+  </si>
+  <si>
+    <t>Stav antiviru pouze pro zařízení s Windows 10:</t>
+  </si>
+  <si>
+    <t>Úroveň expozice odráží aktuální expozici zařízení na základě kumulativního dopadu jeho</t>
+  </si>
+  <si>
+    <t>nevyřízených bezpečnostních doporučení. Možné úrovně jsou nízké, střední a vysoké. Nízká</t>
+  </si>
+  <si>
+    <t>expozice znamená, že vaše zařízení jsou méně zranitelná vůči zneužití.</t>
+  </si>
+  <si>
+    <t>Zařízení přestalo hlásit na více než 30 dní – v takovém případě je považováno za neaktivní a expozice se nepočítá</t>
+  </si>
+  <si>
+    <t>Operační systém zařízení není podporován – viz minimální požadavky pro Microsoft Defender for Endpoint</t>
+  </si>
+  <si>
+    <t>Zařízení má zastaralý agent (nepravděpodobné)</t>
+  </si>
+  <si>
+    <t>Health state</t>
+  </si>
+  <si>
+    <t>Aktivní – Zařízení, která aktivně hlásí službě data senzoru</t>
+  </si>
+  <si>
+    <t>Neaktivní – Zařízení, která přestala vysílat signály na více než sedm dní</t>
+  </si>
+  <si>
+    <t>Špatně nakonfigurováno – Zařízení, která mají narušenou komunikaci se službou nebo nejsou schopna odesílat data senzoru</t>
+  </si>
+  <si>
+    <t>Antivirus state</t>
+  </si>
+  <si>
+    <t>Zakázáno – ochrana před viry a hrozbami je vypnutá</t>
+  </si>
+  <si>
+    <t>Nehlásí se – Ochrana před viry a hrozbami se nehlásí</t>
+  </si>
+  <si>
+    <t>Neaktualizováno – Ochrana před viry a hrozbami není aktuální</t>
+  </si>
+  <si>
+    <t>Pokud úroveň expozice říká "No data available", existuje několik důvodů, proč tomu tak může být:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,8 +713,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +786,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -607,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -630,6 +1079,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -763,7 +1228,132 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214394</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>171924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3529E0B8-E78B-D53B-E355-D934D12918A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33804225"/>
+          <a:ext cx="5700794" cy="2962749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>586738</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="image-browser-image" descr="Screen shot of Defender for Endpoint Device Inventory List">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E8BC5D-2CAE-A6F1-B934-FE23F2B9AA81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6724649" y="8392864"/>
+          <a:ext cx="7273289" cy="2903785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1077,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1411A7-1791-4F1F-A96B-300AD67DF518}">
-  <dimension ref="A26:Q144"/>
+  <dimension ref="A26:X253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="Q94" sqref="Q94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1687,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,368 +1695,966 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="G41" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="G62" s="7" t="s">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="G84" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="G99" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B129" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="G83" s="7" t="s">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="G139" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>11</v>
       </c>
-      <c r="N84" s="21" t="s">
+      <c r="N140" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="21"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="O140" s="21"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>10</v>
       </c>
-      <c r="N85" s="21" t="s">
+      <c r="N141" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="O85" s="21"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="O141" s="21"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>12</v>
       </c>
-      <c r="N86" s="21" t="s">
+      <c r="N142" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O86" s="21"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="O142" s="21"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="37" t="s">
+    <row r="148" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="31" t="s">
+      <c r="B149" s="44"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="32"/>
-      <c r="N93" s="32"/>
-      <c r="O93" s="32"/>
-      <c r="P93" s="33"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
+      <c r="E149" s="44"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="44"/>
+      <c r="I149" s="44"/>
+      <c r="J149" s="44"/>
+      <c r="K149" s="44"/>
+      <c r="L149" s="44"/>
+      <c r="M149" s="44"/>
+      <c r="N149" s="44"/>
+      <c r="O149" s="44"/>
+      <c r="P149" s="45"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="8" t="s">
+      <c r="B150" s="35"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P94" s="13"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="8" t="s">
+      <c r="P150" s="13"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="37"/>
+      <c r="B151" s="38"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P95" s="13"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="8" t="s">
+      <c r="P151" s="13"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="37"/>
+      <c r="B152" s="38"/>
+      <c r="C152" s="39"/>
+      <c r="D152" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P96" s="13"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="8"/>
-      <c r="P97" s="13"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
+      <c r="P152" s="13"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="37"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="39"/>
+      <c r="D153" s="8"/>
+      <c r="P153" s="13"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="11" t="s">
+      <c r="B154" s="35"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="14"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="8" t="s">
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="14"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" s="37"/>
+      <c r="B155" s="38"/>
+      <c r="C155" s="39"/>
+      <c r="D155" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P99" s="13"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="15"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+      <c r="P155" s="13"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="37"/>
+      <c r="B156" s="38"/>
+      <c r="C156" s="39"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
+      <c r="P156" s="15"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="8" t="s">
+      <c r="B157" s="35"/>
+      <c r="C157" s="36"/>
+      <c r="D157" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P101" s="13"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="8" t="s">
+      <c r="P157" s="13"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" s="37"/>
+      <c r="B158" s="38"/>
+      <c r="C158" s="39"/>
+      <c r="D158" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P102" s="13"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="8"/>
-      <c r="P103" s="13"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
+      <c r="P158" s="13"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" s="37"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="39"/>
+      <c r="D159" s="8"/>
+      <c r="P159" s="13"/>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="11" t="s">
+      <c r="B160" s="35"/>
+      <c r="C160" s="36"/>
+      <c r="D160" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="14"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="8" t="s">
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+      <c r="O160" s="12"/>
+      <c r="P160" s="14"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" s="37"/>
+      <c r="B161" s="38"/>
+      <c r="C161" s="39"/>
+      <c r="D161" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P105" s="13"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="28"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="15"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
+      <c r="P161" s="13"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" s="40"/>
+      <c r="B162" s="41"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="9"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="9"/>
+      <c r="O162" s="9"/>
+      <c r="P162" s="15"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="8" t="s">
+      <c r="B163" s="35"/>
+      <c r="C163" s="36"/>
+      <c r="D163" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="P107" s="13"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="8" t="s">
+      <c r="P163" s="13"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" s="37"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="39"/>
+      <c r="D164" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P108" s="13"/>
-    </row>
-    <row r="109" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="34"/>
-      <c r="B109" s="35"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="16"/>
-      <c r="L109" s="16"/>
-      <c r="M109" s="16"/>
-      <c r="N109" s="16"/>
-      <c r="O109" s="16"/>
-      <c r="P109" s="18"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
+      <c r="P164" s="13"/>
+    </row>
+    <row r="165" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="46"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="48"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="16"/>
+      <c r="L165" s="16"/>
+      <c r="M165" s="16"/>
+      <c r="N165" s="16"/>
+      <c r="O165" s="16"/>
+      <c r="P165" s="18"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="P167" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q167" s="20"/>
+      <c r="R167" s="20"/>
+      <c r="S167" s="20"/>
+      <c r="T167" s="20"/>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A186" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
+      <c r="P186" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q186" s="24"/>
+      <c r="R186" s="24"/>
+      <c r="S186" s="24"/>
+      <c r="T186" s="24"/>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>84</v>
+      </c>
+      <c r="P187" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A189" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P189" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A191" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B191" t="s">
+        <v>74</v>
+      </c>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="P191" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q191" s="28"/>
+      <c r="R191" s="28"/>
+      <c r="S191" s="29"/>
+      <c r="T191" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="U191" s="30"/>
+      <c r="V191" s="31"/>
+      <c r="W191" s="31"/>
+      <c r="X191" s="31"/>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A192" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
+      <c r="P192" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="S192" s="8"/>
+      <c r="T192" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A193" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B193" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
+      <c r="P193" s="23"/>
+      <c r="S193" s="8"/>
+      <c r="T193" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A194" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
+      <c r="P194" s="23"/>
+      <c r="S194" s="8"/>
+      <c r="T194" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
+      <c r="P195" s="23"/>
+      <c r="S195" s="8"/>
+      <c r="T195" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>82</v>
+      </c>
+      <c r="S196" s="8"/>
+      <c r="T196" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S197" s="8"/>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A198" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="S198" s="8"/>
+      <c r="T198" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S199" s="8"/>
+      <c r="T199" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S200" s="8"/>
+      <c r="T200" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S201" s="8"/>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S202" s="8"/>
+      <c r="T202" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P203" s="9"/>
+      <c r="Q203" s="9"/>
+      <c r="R203" s="9"/>
+      <c r="S203" s="10"/>
+      <c r="T203" s="9"/>
+      <c r="U203" s="9"/>
+      <c r="V203" s="9"/>
+      <c r="W203" s="9"/>
+      <c r="X203" s="9"/>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P204" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="S204" s="8"/>
+      <c r="T204" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P205" s="23"/>
+      <c r="S205" s="8"/>
+      <c r="T205" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P206" s="23"/>
+      <c r="S206" s="8"/>
+      <c r="T206" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P207" s="9"/>
+      <c r="Q207" s="9"/>
+      <c r="R207" s="9"/>
+      <c r="S207" s="10"/>
+      <c r="T207" s="9"/>
+      <c r="U207" s="9"/>
+      <c r="V207" s="9"/>
+      <c r="W207" s="9"/>
+      <c r="X207" s="9"/>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P208" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="S208" s="8"/>
+      <c r="T208" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P209" s="23"/>
+      <c r="S209" s="8"/>
+      <c r="T209" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P210" s="27"/>
+      <c r="Q210" s="9"/>
+      <c r="R210" s="9"/>
+      <c r="S210" s="10"/>
+      <c r="T210" s="9"/>
+      <c r="U210" s="9"/>
+      <c r="V210" s="9"/>
+      <c r="W210" s="9"/>
+      <c r="X210" s="9"/>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P211" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="S211" s="8"/>
+      <c r="T211" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P212" s="23"/>
+      <c r="S212" s="8"/>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P213" s="23"/>
+      <c r="S213" s="8"/>
+      <c r="T213" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P214" s="27"/>
+      <c r="Q214" s="9"/>
+      <c r="R214" s="9"/>
+      <c r="S214" s="10"/>
+      <c r="T214" s="9"/>
+      <c r="U214" s="9"/>
+      <c r="V214" s="9"/>
+      <c r="W214" s="9"/>
+      <c r="X214" s="9"/>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P215" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="S215" s="8"/>
+      <c r="T215" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S216" s="8"/>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S217" s="8"/>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S218" s="8"/>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A104:C106"/>
-    <mergeCell ref="D93:P93"/>
-    <mergeCell ref="A107:C109"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C97"/>
-    <mergeCell ref="A98:C100"/>
-    <mergeCell ref="A101:C103"/>
+    <mergeCell ref="A160:C162"/>
+    <mergeCell ref="D149:P149"/>
+    <mergeCell ref="A163:C165"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A150:C153"/>
+    <mergeCell ref="A154:C156"/>
+    <mergeCell ref="A157:C159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
